--- a/Curva demanda.xlsx
+++ b/Curva demanda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chus1\Downloads\Proyecto Máquinas Eléctricas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C7141-8722-4A8F-A949-AB47A67B5B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EC1900-B4DF-479F-AFA1-A8B1C47C3846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>P (kW)</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>I(KA)</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -5076,7 +5079,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CR"/>
-              <a:t>Potencia aparente consumida por Zion S.A</a:t>
+              <a:t>Potencia aparente consumida en Diciembre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>por Zion S.A</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -28418,8 +28429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF22"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29191,6 +29202,9 @@
         <f t="shared" si="3"/>
         <v>jueves</v>
       </c>
+      <c r="AF22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
